--- a/data/trans_orig/cron_index-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/cron_index-Provincia-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>0.6467201959452464</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.7835297489171349</v>
+        <v>0.7835297489171348</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.4770090256747813</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3415360265607685</v>
+        <v>0.3363961842470565</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4479615343261311</v>
+        <v>0.4462192515359718</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4600170670022171</v>
+        <v>0.4709275394635923</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.743789843624958</v>
+        <v>0.7590269405916261</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4139406235784865</v>
+        <v>0.42510830237881</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6050504719071282</v>
+        <v>0.5833119499196487</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5342643677569381</v>
+        <v>0.5310869293164546</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.6859620500618956</v>
+        <v>0.6843196650279122</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.4064921138137673</v>
+        <v>0.4048738422207975</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5452175367466966</v>
+        <v>0.5463638214015315</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5262053039303886</v>
+        <v>0.520492782382475</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7522036440889419</v>
+        <v>0.7464318585050341</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5415716313859725</v>
+        <v>0.5405012551424971</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7140359835848775</v>
+        <v>0.7146043699575351</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7056702805406252</v>
+        <v>0.7147305921452304</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.021074102784389</v>
+        <v>1.024888208191299</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6445050791792639</v>
+        <v>0.6459561696879348</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8646484530460213</v>
+        <v>0.8644339642405289</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8208027511749701</v>
+        <v>0.8014652877359235</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8971334585141454</v>
+        <v>0.890346068731444</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5595674106890686</v>
+        <v>0.5483080735738937</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.7354717151945718</v>
+        <v>0.7357980061342307</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7092541745498667</v>
+        <v>0.7088978167711519</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9163512337696458</v>
+        <v>0.9171876243541843</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.5890494986619701</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8331640653931364</v>
+        <v>0.8331640653931365</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7964666419750028</v>
@@ -817,7 +817,7 @@
         <v>0.847741972249492</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.8569166798374317</v>
+        <v>0.8569166798374318</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.6247265297627288</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3780301348672045</v>
+        <v>0.3779134529117354</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5012482919969533</v>
+        <v>0.5050026923673997</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5001620526064521</v>
+        <v>0.5079237676889594</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7194653537246526</v>
+        <v>0.7216947808817501</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.6936505714324104</v>
+        <v>0.7007546908060494</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.7367803198310503</v>
+        <v>0.7418301213216487</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.752950489745565</v>
+        <v>0.7454264463922654</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.7534066921591813</v>
+        <v>0.7673467445092793</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5651917869794846</v>
+        <v>0.5631627495760632</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6514241496841091</v>
+        <v>0.6522238500889771</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.6507873674836158</v>
+        <v>0.6555806456136475</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7655337514631015</v>
+        <v>0.7696295164979877</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5397068867580574</v>
+        <v>0.5412059700800014</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7372881334078053</v>
+        <v>0.7295686338229761</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6807789187242912</v>
+        <v>0.6898255015378836</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9657709895300607</v>
+        <v>0.9699248774336002</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9133461198759775</v>
+        <v>0.9160507434458599</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9708132180857182</v>
+        <v>0.9625799341766493</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9605808706436457</v>
+        <v>0.9549874061365095</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.957425244418075</v>
+        <v>0.9667417166945769</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6944321286737665</v>
+        <v>0.697763628832204</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8075126940130086</v>
+        <v>0.8171399520159275</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.8006624109815499</v>
+        <v>0.7945049331305372</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9210511310504133</v>
+        <v>0.9272832465330504</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3719166310989752</v>
+        <v>0.3811024387432521</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5895701630432284</v>
+        <v>0.5807679864075364</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4569597061661581</v>
+        <v>0.4688884029238269</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.8334980483746389</v>
+        <v>0.8567301437932231</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6046648435230297</v>
+        <v>0.61240690091382</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7679077096383344</v>
+        <v>0.7523357800664616</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.5592062258533138</v>
+        <v>0.5457620154783203</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9716500550280883</v>
+        <v>0.9807651738931588</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5218570620676515</v>
+        <v>0.5260741736339877</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.7170163225741688</v>
+        <v>0.7160101471385852</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.5405119430950561</v>
+        <v>0.5357064589052851</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.9590397674598442</v>
+        <v>0.9458029959669201</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.55873192387902</v>
+        <v>0.5671053314265544</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8699266130669981</v>
+        <v>0.8643555275901854</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6531331116411448</v>
+        <v>0.6646370499498204</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.157117067472717</v>
+        <v>1.193733304599108</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.851303942171611</v>
+        <v>0.8493320951954997</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.053540949431903</v>
+        <v>1.05680844993721</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7963641721530571</v>
+        <v>0.7965958090222779</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.243689499102145</v>
+        <v>1.252475621058912</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6708510726461596</v>
+        <v>0.6738072357214285</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.9109119419522828</v>
+        <v>0.9206028912178502</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6977171925642636</v>
+        <v>0.6964698391096196</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>1.176701778104301</v>
+        <v>1.159478589883162</v>
       </c>
     </row>
     <row r="13">
@@ -1101,7 +1101,7 @@
         <v>0.8025063850463646</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.9531716106365035</v>
+        <v>0.9531716106365034</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3973495554483679</v>
+        <v>0.4001165302881049</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5087082798097691</v>
+        <v>0.5188375245643997</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6212474512993729</v>
+        <v>0.617784162739634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.743716120978507</v>
+        <v>0.722304780028568</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5646595737337399</v>
+        <v>0.5746192246991703</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7678791242106338</v>
+        <v>0.7522918884437678</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7391633143222641</v>
+        <v>0.7534419634173795</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8903814299094516</v>
+        <v>0.8909845649852944</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.514981347296472</v>
+        <v>0.5118617542147352</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6673989811254105</v>
+        <v>0.670271467411325</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7179903231951951</v>
+        <v>0.7295624341856035</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8507926058023439</v>
+        <v>0.8560607100388118</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5817672929155432</v>
+        <v>0.5894953606222433</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.7452260405896234</v>
+        <v>0.7412616590363343</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8706206019103335</v>
+        <v>0.8702861131159135</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.085280963176983</v>
+        <v>1.064082417610577</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7739446362770915</v>
+        <v>0.7789671368735498</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>1.040212389869993</v>
+        <v>1.030640474337112</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>1.004071824174373</v>
+        <v>1.000532636309119</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>1.122674994197387</v>
+        <v>1.12449774934386</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6480736754979408</v>
+        <v>0.6416597273157111</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8566928136597644</v>
+        <v>0.8499901346904858</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.894164685048767</v>
+        <v>0.9021070063613652</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>1.055052346274291</v>
+        <v>1.064532108746531</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.5463028477326424</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.8964021883763688</v>
+        <v>0.8964021883763686</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.810402289028038</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4025042186461889</v>
+        <v>0.3908921646184786</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5692924590932226</v>
+        <v>0.5730905759957566</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.4324191026874006</v>
+        <v>0.4257700309461611</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7372917692036478</v>
+        <v>0.7583223831452127</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.6405286641054826</v>
+        <v>0.637666216745459</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9258288714192603</v>
+        <v>0.9377110379784733</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6336058796932132</v>
+        <v>0.6321587529912909</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.112666724408187</v>
+        <v>1.10652076131617</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.5569385982278943</v>
+        <v>0.5569954581179575</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7981424138624186</v>
+        <v>0.8015855122543314</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.5765142886945912</v>
+        <v>0.5698660394618356</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.9824186736251157</v>
+        <v>0.9775686095572059</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6601451858625005</v>
+        <v>0.6474430156890586</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9387848540763681</v>
+        <v>0.9466009446425778</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6937692950251598</v>
+        <v>0.6829393091482576</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.073834406136728</v>
+        <v>1.081135410308813</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.032740960748283</v>
+        <v>1.035215548420316</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.324954568530763</v>
+        <v>1.345203018844258</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9821882676639107</v>
+        <v>0.9783608772543451</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.429681243940634</v>
+        <v>1.433535263347858</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8039219528847772</v>
+        <v>0.7991902972335745</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1.069861768559217</v>
+        <v>1.069092686136437</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7964086643189799</v>
+        <v>0.7879007090047385</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>1.209344691236923</v>
+        <v>1.200613087811752</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.729584665731441</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>1.254155314959833</v>
+        <v>1.254155314959832</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5866076137219008</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.38522260128148</v>
+        <v>0.3861296079005507</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6481502716374651</v>
+        <v>0.6558880320403131</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4473862405092759</v>
+        <v>0.4378193969950906</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.115318369257322</v>
+        <v>1.126634564320991</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5899642251328223</v>
+        <v>0.5849991032829438</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.8126102424969625</v>
+        <v>0.8078183593242195</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5976383416241807</v>
+        <v>0.6082929007432659</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>1.10778453472998</v>
+        <v>1.115278257631965</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.5089131025435989</v>
+        <v>0.5103354177306282</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7763129606758348</v>
+        <v>0.7736879108955325</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5552918429124996</v>
+        <v>0.5612972254218928</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>1.163447695287984</v>
+        <v>1.153666064189874</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5823185386193021</v>
+        <v>0.5902861614491405</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9282353853432186</v>
+        <v>0.9758992168351766</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6964033211608359</v>
+        <v>0.6906546477482951</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1.463874444731627</v>
+        <v>1.491045979181714</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8395726786596918</v>
+        <v>0.8374972604060763</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>1.126361848110392</v>
+        <v>1.115034567454745</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8793960141592164</v>
+        <v>0.8890863840175021</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>1.399621127302602</v>
+        <v>1.425874552868206</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6663776795078551</v>
+        <v>0.6633985294200886</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.981770347963055</v>
+        <v>0.9880973143873317</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7346395046364933</v>
+        <v>0.7464703678092027</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>1.388189449391896</v>
+        <v>1.389743865203479</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.6342574719974965</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.9847145837985851</v>
+        <v>0.9847145837985849</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6883857008172781</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4245366304113354</v>
+        <v>0.426708102575134</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.560966505517579</v>
+        <v>0.5661986253047551</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5487517799272041</v>
+        <v>0.5495300608173234</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.8788707695872962</v>
+        <v>0.8712961883553765</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6010590653392459</v>
+        <v>0.6056945939541296</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.720143980387365</v>
+        <v>0.7200735576235395</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5900326908490906</v>
+        <v>0.5893956250535833</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.024651083018923</v>
+        <v>1.032269258732883</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5384668691770446</v>
+        <v>0.5335266377774652</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6696372109737162</v>
+        <v>0.6672982573056098</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.6014304603753028</v>
+        <v>0.5944607302270178</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.9858273326715182</v>
+        <v>0.9783183651144035</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.574257825197917</v>
+        <v>0.5769955955749146</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7485260735158408</v>
+        <v>0.7481383871990047</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.7338666326657209</v>
+        <v>0.7361173280666395</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.117202606848622</v>
+        <v>1.112887605661504</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7800954666016662</v>
+        <v>0.7790703125950613</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9065310454031786</v>
+        <v>0.9166706503085846</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.77689098299462</v>
+        <v>0.7816101729642914</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.22222136664606</v>
+        <v>1.229846481526529</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.6556244251242365</v>
+        <v>0.658746225741375</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7985526445838392</v>
+        <v>0.8066534937498265</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.7314405386398124</v>
+        <v>0.7350084714825854</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>1.136734143978104</v>
+        <v>1.132215679061561</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.7918520477340593</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.8824967088577981</v>
+        <v>0.8824967088577982</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.6974906134202724</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5444843073687466</v>
+        <v>0.5455313051571408</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.4350984350336715</v>
+        <v>0.4358297694820573</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.562438819102028</v>
+        <v>0.5669003472924653</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.6476858618964665</v>
+        <v>0.6464012723003958</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6731256501668271</v>
+        <v>0.6795348666168108</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.5640210023888613</v>
+        <v>0.5582870268424437</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.6978877108912289</v>
+        <v>0.706399831490742</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.8009319011463665</v>
+        <v>0.8021492177672607</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.6439579526207123</v>
+        <v>0.6449855544834397</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.5188083984575247</v>
+        <v>0.5198594152262425</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.6598486732586509</v>
+        <v>0.6572282714662808</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.7456680467524461</v>
+        <v>0.7477306609203471</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7154892575866703</v>
+        <v>0.7109516838804941</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5827871671826097</v>
+        <v>0.5837892094911203</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7251974220395558</v>
+        <v>0.7261167665790853</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.824463513923241</v>
+        <v>0.8237797008034845</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.8506407930654125</v>
+        <v>0.8588074624912615</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7319856996289592</v>
+        <v>0.718150363523372</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.8958109196785357</v>
+        <v>0.8923760431884967</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9725388241787626</v>
+        <v>0.9662251133862089</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7643423132166742</v>
+        <v>0.7660545452778259</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.6315539704075793</v>
+        <v>0.6300758992540921</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.7782954443200242</v>
+        <v>0.7791665151394129</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.8700466717772987</v>
+        <v>0.8701210417982865</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>0.6162753106086095</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.9048399331896578</v>
+        <v>0.9048399331896579</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.7181474320547336</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.4766884949692131</v>
+        <v>0.4757212244851498</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5815597649253101</v>
+        <v>0.5833750472025485</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.5824306128811509</v>
+        <v>0.5805285975423201</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.8540357121008401</v>
+        <v>0.8635513292632661</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.6779141761518382</v>
+        <v>0.6805158011868064</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.7699274764654565</v>
+        <v>0.7726672014735113</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.712501424224765</v>
+        <v>0.7177937783016389</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.9628013652204522</v>
+        <v>0.9603236427676131</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.5889729607274856</v>
+        <v>0.5892930811999064</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.6885072337109551</v>
+        <v>0.6913652356621813</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.6601236026201115</v>
+        <v>0.6611629038985655</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.9268794966456391</v>
+        <v>0.9257414242376906</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5419051649612215</v>
+        <v>0.5415930929578023</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.6629424536582748</v>
+        <v>0.6619820547648844</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.6526007285279052</v>
+        <v>0.6545949275998003</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.9510207733117884</v>
+        <v>0.9557409041595341</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7573346087346515</v>
+        <v>0.7559177989174038</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.8545870146093113</v>
+        <v>0.8583252801803125</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.798567759832443</v>
+        <v>0.8010826122297763</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>1.045630272672399</v>
+        <v>1.04641562827124</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.6411894307180539</v>
+        <v>0.6408974939160378</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.7493006351482497</v>
+        <v>0.7517068885956999</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.7161187246032839</v>
+        <v>0.7149320910762947</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.9861909629418646</v>
+        <v>0.9884359869064571</v>
       </c>
     </row>
     <row r="31">
